--- a/biology/Botanique/Hemiorchis/Hemiorchis.xlsx
+++ b/biology/Botanique/Hemiorchis/Hemiorchis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemiorchis est un genre de trois espèces de plantes de la famille des Zingiberaceae originaire de l'Himalaya central et oriental ainsi que de Birmanie.
 La première description de Hemiorchis burmanica fut faite en 1873 par Wilhelm Sulpiz Kurz, botaniste allemand, dans le "Journal of the Asiatic Society of Bengal"
@@ -514,13 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 juil. 2010)[1]
-Hemiorchis burmanica Kurz, (1873)
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 juil. 2010)[1]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hemiorchis burmanica Kurz, (1873)
 Hemiorchis pantlingii King (1894)
-Hemiorchis rhodorrhachis K.Schum. (1904)
-Selon NCBI  (18 juil. 2010)[2]
-Hemiorchis burmanica
-Hemiorchis rhodorrhachis</t>
+Hemiorchis rhodorrhachis K.Schum. (1904)</t>
         </is>
       </c>
     </row>
@@ -545,12 +559,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 juil. 2010)[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hemiorchis burmanica
+Hemiorchis rhodorrhachis</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hemiorchis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemiorchis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Synonymes, noms obsolètes, leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 sept. 2011)[3]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (13 sept. 2011):
 Hemiorchis godefroyi Baill., (1895) = Gagnepainia godefroyi (Baill.) K.Schum. (1904).
 Hemiorchis harmandii Baill., (1895) = Gagnepainia harmandii (Baill.) K.Schum. (1904).
 Hemiorchis thoreliana Baill., (1895) = Gagnepainia thoreliana (Baill.) K.Schum. (1904).</t>
